--- a/打包/RND_stats_2022-04-01_to_2022-06-15_exp_2022-06-24_比較.xlsx
+++ b/打包/RND_stats_2022-04-01_to_2022-06-15_exp_2022-06-24_比較.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\RND_Thesis\打包\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63C3FF2-C5D8-4201-AAF5-1501BF40BF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114297B3-6BB5-49B6-878B-5CB326D40559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F72CB634-BBEE-4727-88C0-4B4F4673400E}"/>
   </bookViews>
   <sheets>
     <sheet name="RND_stats_2022-04-01_to_2022-06" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -7081,1099 +7078,95 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2853</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6B89F0-5F5D-8F2A-70D0-773EAC793B05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4330700" y="17056100"/>
+          <a:ext cx="3679503" cy="2444750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>898075</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC374088-F61B-366E-C86A-4949CFEBC2AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="654050" y="17056100"/>
+          <a:ext cx="3641275" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="RND_stats_2021-04-01_to_2021-06"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="D2" t="str">
-            <v>偏度 Skewness</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>偏度 Skewness</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>偏度 Skewness 誤差</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>44287</v>
-          </cell>
-          <cell r="D3">
-            <v>1.1990000000000001</v>
-          </cell>
-          <cell r="H3">
-            <v>1.0107999999999999</v>
-          </cell>
-          <cell r="K3">
-            <v>-0.15696413678065066</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>44288</v>
-          </cell>
-          <cell r="D4">
-            <v>1.5916999999999999</v>
-          </cell>
-          <cell r="H4">
-            <v>1.4075</v>
-          </cell>
-          <cell r="K4">
-            <v>-0.11572532512408112</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>44289</v>
-          </cell>
-          <cell r="D5">
-            <v>1.4081999999999999</v>
-          </cell>
-          <cell r="H5">
-            <v>1.2976000000000001</v>
-          </cell>
-          <cell r="K5">
-            <v>-7.85399801164606E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>44290</v>
-          </cell>
-          <cell r="D6">
-            <v>1.5266999999999999</v>
-          </cell>
-          <cell r="H6">
-            <v>1.0839000000000001</v>
-          </cell>
-          <cell r="K6">
-            <v>-0.29003733542935733</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>44291</v>
-          </cell>
-          <cell r="D7">
-            <v>1.6639999999999999</v>
-          </cell>
-          <cell r="H7">
-            <v>1.5124</v>
-          </cell>
-          <cell r="K7">
-            <v>-9.1105769230769212E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>44292</v>
-          </cell>
-          <cell r="D8">
-            <v>1.581</v>
-          </cell>
-          <cell r="H8">
-            <v>1.4369000000000001</v>
-          </cell>
-          <cell r="K8">
-            <v>-9.114484503478805E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>44293</v>
-          </cell>
-          <cell r="D9">
-            <v>1.2393000000000001</v>
-          </cell>
-          <cell r="H9">
-            <v>1.1850000000000001</v>
-          </cell>
-          <cell r="K9">
-            <v>-4.3815056886952322E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>44294</v>
-          </cell>
-          <cell r="D10">
-            <v>1.2444</v>
-          </cell>
-          <cell r="H10">
-            <v>1.1601999999999999</v>
-          </cell>
-          <cell r="K10">
-            <v>-6.7663130826100981E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>44295</v>
-          </cell>
-          <cell r="D11">
-            <v>1.6776</v>
-          </cell>
-          <cell r="H11">
-            <v>1.5199</v>
-          </cell>
-          <cell r="K11">
-            <v>-9.4003338102050527E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>44296</v>
-          </cell>
-          <cell r="D12">
-            <v>1.8836999999999999</v>
-          </cell>
-          <cell r="H12">
-            <v>1.7283999999999999</v>
-          </cell>
-          <cell r="K12">
-            <v>-8.2444125922386785E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>44297</v>
-          </cell>
-          <cell r="D13">
-            <v>1.7562</v>
-          </cell>
-          <cell r="H13">
-            <v>1.6800999999999999</v>
-          </cell>
-          <cell r="K13">
-            <v>-4.3332194510875784E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>44298</v>
-          </cell>
-          <cell r="D14">
-            <v>1.9179999999999999</v>
-          </cell>
-          <cell r="H14">
-            <v>1.5093000000000001</v>
-          </cell>
-          <cell r="K14">
-            <v>-0.21308654848800826</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>44299</v>
-          </cell>
-          <cell r="D15">
-            <v>1.6351</v>
-          </cell>
-          <cell r="H15">
-            <v>1.5490999999999999</v>
-          </cell>
-          <cell r="K15">
-            <v>-5.2596171487982436E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>44300</v>
-          </cell>
-          <cell r="D16">
-            <v>1.3478000000000001</v>
-          </cell>
-          <cell r="H16">
-            <v>1.3210999999999999</v>
-          </cell>
-          <cell r="K16">
-            <v>-1.9810060839887348E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>44301</v>
-          </cell>
-          <cell r="D17">
-            <v>1.4722</v>
-          </cell>
-          <cell r="H17">
-            <v>1.4411</v>
-          </cell>
-          <cell r="K17">
-            <v>-2.1124847167504353E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>44302</v>
-          </cell>
-          <cell r="D18">
-            <v>1.1597999999999999</v>
-          </cell>
-          <cell r="H18">
-            <v>1.2317</v>
-          </cell>
-          <cell r="K18">
-            <v>6.1993447146059734E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>44303</v>
-          </cell>
-          <cell r="D19">
-            <v>0.99239999999999995</v>
-          </cell>
-          <cell r="H19">
-            <v>1.1167</v>
-          </cell>
-          <cell r="K19">
-            <v>0.12525191455058451</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>44304</v>
-          </cell>
-          <cell r="D20">
-            <v>1.2889999999999999</v>
-          </cell>
-          <cell r="H20">
-            <v>1.3245</v>
-          </cell>
-          <cell r="K20">
-            <v>2.7540729247478735E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>44305</v>
-          </cell>
-          <cell r="D21">
-            <v>1.1551</v>
-          </cell>
-          <cell r="H21">
-            <v>1.1444000000000001</v>
-          </cell>
-          <cell r="K21">
-            <v>-9.2632672495887216E-3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>44306</v>
-          </cell>
-          <cell r="D22">
-            <v>1.214</v>
-          </cell>
-          <cell r="H22">
-            <v>1.2616000000000001</v>
-          </cell>
-          <cell r="K22">
-            <v>3.9209225700164815E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>44307</v>
-          </cell>
-          <cell r="D23">
-            <v>1.6155999999999999</v>
-          </cell>
-          <cell r="H23">
-            <v>1.4265000000000001</v>
-          </cell>
-          <cell r="K23">
-            <v>-0.11704629858875949</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>44308</v>
-          </cell>
-          <cell r="D24">
-            <v>1.0022</v>
-          </cell>
-          <cell r="H24">
-            <v>0.96399999999999997</v>
-          </cell>
-          <cell r="K24">
-            <v>-3.8116144482139305E-2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>44309</v>
-          </cell>
-          <cell r="D25">
-            <v>0.65059999999999996</v>
-          </cell>
-          <cell r="H25">
-            <v>0.62329999999999997</v>
-          </cell>
-          <cell r="K25">
-            <v>-4.1961266523209334E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>44310</v>
-          </cell>
-          <cell r="D26">
-            <v>0.71140000000000003</v>
-          </cell>
-          <cell r="H26">
-            <v>0.64649999999999996</v>
-          </cell>
-          <cell r="K26">
-            <v>-9.1228563396120413E-2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>44311</v>
-          </cell>
-          <cell r="D27">
-            <v>0.70420000000000005</v>
-          </cell>
-          <cell r="H27">
-            <v>0.68640000000000001</v>
-          </cell>
-          <cell r="K27">
-            <v>-2.5276909968758927E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>44312</v>
-          </cell>
-          <cell r="D28">
-            <v>0.34839999999999999</v>
-          </cell>
-          <cell r="H28">
-            <v>0.18609999999999999</v>
-          </cell>
-          <cell r="K28">
-            <v>-0.46584385763490244</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>44313</v>
-          </cell>
-          <cell r="D29">
-            <v>0.7147</v>
-          </cell>
-          <cell r="H29">
-            <v>0.93410000000000004</v>
-          </cell>
-          <cell r="K29">
-            <v>0.30698195046872817</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>44314</v>
-          </cell>
-          <cell r="D30">
-            <v>0.60429999999999995</v>
-          </cell>
-          <cell r="H30">
-            <v>0.81679999999999997</v>
-          </cell>
-          <cell r="K30">
-            <v>0.35164653317888472</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>44315</v>
-          </cell>
-          <cell r="D31">
-            <v>0.25669999999999998</v>
-          </cell>
-          <cell r="H31">
-            <v>-5.8700000000000002E-2</v>
-          </cell>
-          <cell r="K31">
-            <v>-1.2286716010907677</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>44316</v>
-          </cell>
-          <cell r="D32">
-            <v>0.36280000000000001</v>
-          </cell>
-          <cell r="H32">
-            <v>0.77480000000000004</v>
-          </cell>
-          <cell r="K32">
-            <v>1.1356119073869901</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>44317</v>
-          </cell>
-          <cell r="D33">
-            <v>0.55020000000000002</v>
-          </cell>
-          <cell r="H33">
-            <v>0.88890000000000002</v>
-          </cell>
-          <cell r="K33">
-            <v>0.6155943293347873</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>44318</v>
-          </cell>
-          <cell r="D34">
-            <v>0.45879999999999999</v>
-          </cell>
-          <cell r="H34">
-            <v>0.60250000000000004</v>
-          </cell>
-          <cell r="K34">
-            <v>0.31320836965998267</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>44319</v>
-          </cell>
-          <cell r="D35">
-            <v>0.56789999999999996</v>
-          </cell>
-          <cell r="H35">
-            <v>0.72829999999999995</v>
-          </cell>
-          <cell r="K35">
-            <v>0.2824440922697658</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>44320</v>
-          </cell>
-          <cell r="D36">
-            <v>0.58030000000000004</v>
-          </cell>
-          <cell r="H36">
-            <v>0.51370000000000005</v>
-          </cell>
-          <cell r="K36">
-            <v>-0.11476822333275889</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>44321</v>
-          </cell>
-          <cell r="D37">
-            <v>0.54249999999999998</v>
-          </cell>
-          <cell r="H37">
-            <v>0.72089999999999999</v>
-          </cell>
-          <cell r="K37">
-            <v>0.3288479262672811</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>44322</v>
-          </cell>
-          <cell r="D38">
-            <v>0.53890000000000005</v>
-          </cell>
-          <cell r="H38">
-            <v>0.90259999999999996</v>
-          </cell>
-          <cell r="K38">
-            <v>0.67489330116904789</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>44323</v>
-          </cell>
-          <cell r="D39">
-            <v>0.43230000000000002</v>
-          </cell>
-          <cell r="H39">
-            <v>0.66290000000000004</v>
-          </cell>
-          <cell r="K39">
-            <v>0.5334258616701365</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>44324</v>
-          </cell>
-          <cell r="D40">
-            <v>0.73980000000000001</v>
-          </cell>
-          <cell r="H40">
-            <v>1.0291999999999999</v>
-          </cell>
-          <cell r="K40">
-            <v>0.39118680724520122</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>44325</v>
-          </cell>
-          <cell r="D41">
-            <v>0.48470000000000002</v>
-          </cell>
-          <cell r="H41">
-            <v>0.77929999999999999</v>
-          </cell>
-          <cell r="K41">
-            <v>0.60779863833298942</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>44326</v>
-          </cell>
-          <cell r="D42">
-            <v>0.54459999999999997</v>
-          </cell>
-          <cell r="H42">
-            <v>0.86519999999999997</v>
-          </cell>
-          <cell r="K42">
-            <v>0.58868894601542421</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>44327</v>
-          </cell>
-          <cell r="D43">
-            <v>0.55759999999999998</v>
-          </cell>
-          <cell r="H43">
-            <v>0.97340000000000004</v>
-          </cell>
-          <cell r="K43">
-            <v>0.74569583931133443</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>44328</v>
-          </cell>
-          <cell r="D44">
-            <v>0.78190000000000004</v>
-          </cell>
-          <cell r="H44">
-            <v>0.89080000000000004</v>
-          </cell>
-          <cell r="K44">
-            <v>0.13927612226627445</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>44329</v>
-          </cell>
-          <cell r="D45">
-            <v>1.0182</v>
-          </cell>
-          <cell r="H45">
-            <v>0.90890000000000004</v>
-          </cell>
-          <cell r="K45">
-            <v>-0.1073462973875466</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>44330</v>
-          </cell>
-          <cell r="D46">
-            <v>0.47510000000000002</v>
-          </cell>
-          <cell r="H46">
-            <v>0.54110000000000003</v>
-          </cell>
-          <cell r="K46">
-            <v>0.13891812250052621</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>44331</v>
-          </cell>
-          <cell r="D47">
-            <v>0.43490000000000001</v>
-          </cell>
-          <cell r="H47">
-            <v>0.35360000000000003</v>
-          </cell>
-          <cell r="K47">
-            <v>-0.18693952632789143</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>44332</v>
-          </cell>
-          <cell r="D48">
-            <v>0.47549999999999998</v>
-          </cell>
-          <cell r="H48">
-            <v>0.41189999999999999</v>
-          </cell>
-          <cell r="K48">
-            <v>-0.13375394321766559</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>44333</v>
-          </cell>
-          <cell r="D49">
-            <v>0.51439999999999997</v>
-          </cell>
-          <cell r="H49">
-            <v>0.4027</v>
-          </cell>
-          <cell r="K49">
-            <v>-0.21714618973561425</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>44334</v>
-          </cell>
-          <cell r="D50">
-            <v>0.27839999999999998</v>
-          </cell>
-          <cell r="H50">
-            <v>0.2399</v>
-          </cell>
-          <cell r="K50">
-            <v>-0.1382902298850574</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>44335</v>
-          </cell>
-          <cell r="D51">
-            <v>0.4239</v>
-          </cell>
-          <cell r="H51">
-            <v>0.32929999999999998</v>
-          </cell>
-          <cell r="K51">
-            <v>-0.22316584100023595</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>44336</v>
-          </cell>
-          <cell r="D52">
-            <v>0.18279999999999999</v>
-          </cell>
-          <cell r="H52">
-            <v>0.18110000000000001</v>
-          </cell>
-          <cell r="K52">
-            <v>-9.2997811816191434E-3</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>44337</v>
-          </cell>
-          <cell r="D53">
-            <v>0.35360000000000003</v>
-          </cell>
-          <cell r="H53">
-            <v>0.30070000000000002</v>
-          </cell>
-          <cell r="K53">
-            <v>-0.14960407239819004</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>44338</v>
-          </cell>
-          <cell r="D54">
-            <v>0.2918</v>
-          </cell>
-          <cell r="H54">
-            <v>0.15820000000000001</v>
-          </cell>
-          <cell r="K54">
-            <v>-0.45784784098697734</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>44339</v>
-          </cell>
-          <cell r="D55">
-            <v>0.33929999999999999</v>
-          </cell>
-          <cell r="H55">
-            <v>0.33539999999999998</v>
-          </cell>
-          <cell r="K55">
-            <v>-1.1494252873563262E-2</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>44340</v>
-          </cell>
-          <cell r="D56">
-            <v>0.2157</v>
-          </cell>
-          <cell r="H56">
-            <v>0.1857</v>
-          </cell>
-          <cell r="K56">
-            <v>-0.13908205841446453</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>44341</v>
-          </cell>
-          <cell r="D57">
-            <v>0.40110000000000001</v>
-          </cell>
-          <cell r="H57">
-            <v>0.39729999999999999</v>
-          </cell>
-          <cell r="K57">
-            <v>-9.4739466467215795E-3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>44342</v>
-          </cell>
-          <cell r="D58">
-            <v>0.1663</v>
-          </cell>
-          <cell r="H58">
-            <v>0.16639999999999999</v>
-          </cell>
-          <cell r="K58">
-            <v>6.0132291040282013E-4</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>44343</v>
-          </cell>
-          <cell r="D59">
-            <v>1.8100000000000002E-2</v>
-          </cell>
-          <cell r="H59">
-            <v>5.7000000000000002E-2</v>
-          </cell>
-          <cell r="K59">
-            <v>2.1491712707182322</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>44344</v>
-          </cell>
-          <cell r="D60">
-            <v>0.21529999999999999</v>
-          </cell>
-          <cell r="H60">
-            <v>0.24149999999999999</v>
-          </cell>
-          <cell r="K60">
-            <v>0.12169066418950303</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>44345</v>
-          </cell>
-          <cell r="D61">
-            <v>0.1522</v>
-          </cell>
-          <cell r="H61">
-            <v>0.14000000000000001</v>
-          </cell>
-          <cell r="K61">
-            <v>-8.0157687253613594E-2</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>44346</v>
-          </cell>
-          <cell r="D62">
-            <v>5.8500000000000003E-2</v>
-          </cell>
-          <cell r="H62">
-            <v>6.7900000000000002E-2</v>
-          </cell>
-          <cell r="K62">
-            <v>0.16068376068376064</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>44347</v>
-          </cell>
-          <cell r="D63">
-            <v>4.7399999999999998E-2</v>
-          </cell>
-          <cell r="H63">
-            <v>7.6799999999999993E-2</v>
-          </cell>
-          <cell r="K63">
-            <v>0.620253164556962</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>44348</v>
-          </cell>
-          <cell r="D64">
-            <v>0.1706</v>
-          </cell>
-          <cell r="H64">
-            <v>0.2039</v>
-          </cell>
-          <cell r="K64">
-            <v>0.19519343493552166</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>44349</v>
-          </cell>
-          <cell r="D65">
-            <v>0.25030000000000002</v>
-          </cell>
-          <cell r="H65">
-            <v>0.19819999999999999</v>
-          </cell>
-          <cell r="K65">
-            <v>-0.20815021973631653</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>44350</v>
-          </cell>
-          <cell r="D66">
-            <v>8.9800000000000005E-2</v>
-          </cell>
-          <cell r="H66">
-            <v>0.1171</v>
-          </cell>
-          <cell r="K66">
-            <v>0.30400890868596869</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>44351</v>
-          </cell>
-          <cell r="D67">
-            <v>-6.5799999999999997E-2</v>
-          </cell>
-          <cell r="H67">
-            <v>-7.4099999999999999E-2</v>
-          </cell>
-          <cell r="K67">
-            <v>0.12613981762917936</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>44352</v>
-          </cell>
-          <cell r="D68">
-            <v>7.3099999999999998E-2</v>
-          </cell>
-          <cell r="H68">
-            <v>0.1258</v>
-          </cell>
-          <cell r="K68">
-            <v>0.72093023255813948</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>44353</v>
-          </cell>
-          <cell r="D69">
-            <v>6.6900000000000001E-2</v>
-          </cell>
-          <cell r="H69">
-            <v>5.6500000000000002E-2</v>
-          </cell>
-          <cell r="K69">
-            <v>-0.15545590433482809</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>44354</v>
-          </cell>
-          <cell r="D70">
-            <v>-0.28160000000000002</v>
-          </cell>
-          <cell r="H70">
-            <v>-0.2908</v>
-          </cell>
-          <cell r="K70">
-            <v>3.2670454545454496E-2</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>44355</v>
-          </cell>
-          <cell r="D71">
-            <v>-2.0199999999999999E-2</v>
-          </cell>
-          <cell r="H71">
-            <v>-3.85E-2</v>
-          </cell>
-          <cell r="K71">
-            <v>0.90594059405940597</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>44356</v>
-          </cell>
-          <cell r="D72">
-            <v>0.379</v>
-          </cell>
-          <cell r="H72">
-            <v>0.43619999999999998</v>
-          </cell>
-          <cell r="K72">
-            <v>0.15092348284960416</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>44357</v>
-          </cell>
-          <cell r="D73">
-            <v>-0.1095</v>
-          </cell>
-          <cell r="H73">
-            <v>-0.18809999999999999</v>
-          </cell>
-          <cell r="K73">
-            <v>0.71780821917808213</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>44358</v>
-          </cell>
-          <cell r="D74">
-            <v>-0.16309999999999999</v>
-          </cell>
-          <cell r="H74">
-            <v>-0.2336</v>
-          </cell>
-          <cell r="K74">
-            <v>0.43225015328019628</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>44359</v>
-          </cell>
-          <cell r="D75">
-            <v>-0.1542</v>
-          </cell>
-          <cell r="H75">
-            <v>-0.28610000000000002</v>
-          </cell>
-          <cell r="K75">
-            <v>0.85538261997405973</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>44360</v>
-          </cell>
-          <cell r="D76">
-            <v>-7.2499999999999995E-2</v>
-          </cell>
-          <cell r="H76">
-            <v>-5.8999999999999997E-2</v>
-          </cell>
-          <cell r="K76">
-            <v>-0.18620689655172412</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>44361</v>
-          </cell>
-          <cell r="D77">
-            <v>0.20660000000000001</v>
-          </cell>
-          <cell r="H77">
-            <v>0.29559999999999997</v>
-          </cell>
-          <cell r="K77">
-            <v>0.43078412391093884</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>44362</v>
-          </cell>
-          <cell r="D78">
-            <v>-0.16719999999999999</v>
-          </cell>
-          <cell r="H78">
-            <v>-0.13930000000000001</v>
-          </cell>
-          <cell r="K78">
-            <v>-0.16686602870813386</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8495,9 +7488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A236B23-AF67-496E-9611-84F2CAA358B7}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
